--- a/analysis/metadata/P08_7/P08_7_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_7/P08_7_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:24</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:25</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:24</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:26</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:24</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:23</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:26</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:26</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:27</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:27</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:04</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:04</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:06</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:06</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:06</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:07</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:09</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:09</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:10</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:08</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:08</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:15</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:14</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:14</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:16</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:14</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:15</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:16</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:13</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:13</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:15</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:13</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:12</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:23</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:22</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:23</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:22</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:22</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:21</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:20</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:21</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:19</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:20</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:20</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:19</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:28</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:29</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:30</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:27</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:28</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:26</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:28</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:29</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:27</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:27</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:26</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:29</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:42</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:42</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:40</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:40</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:43</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:41</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:36</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:38</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5334,7 +5334,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:39</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:35</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:37</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:37</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:41</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:42</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:43</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:38</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:39</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:39</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:36</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:37</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6210,7 +6210,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:38</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:35</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6356,7 +6356,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:35</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:36</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:46</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:46</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:45</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:46</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:47</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:45</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:50</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:50</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:49</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:49</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:49</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7305,7 +7305,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:48</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:59</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7451,7 +7451,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:59</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:57</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:58</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7670,7 +7670,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:56</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:54</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:55</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:56</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7962,7 +7962,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:54</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -8035,7 +8035,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:58</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:58</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:57</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8254,7 +8254,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:57</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8327,7 +8327,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:56</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8400,7 +8400,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:54</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:55</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>17/12/2021 08:53</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8619,7 +8619,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:23</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8692,7 +8692,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:27</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:23</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:22</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:34</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:35</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -9057,7 +9057,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:35</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:34</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9203,7 +9203,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:36</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:36</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9349,7 +9349,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:33</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9422,7 +9422,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:32</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:32</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:33</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:31</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9714,7 +9714,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:35</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9787,7 +9787,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:36</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9860,7 +9860,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:32</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:33</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>22/12/2021 05:31</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">

--- a/analysis/metadata/P08_7/P08_7_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_7/P08_7_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>22/12/2021 05:25</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>22/12/2021 05:24</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>22/12/2021 05:25</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>22/12/2021 05:24</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>22/12/2021 05:26</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>22/12/2021 05:24</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>22/12/2021 05:23</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>22/12/2021 05:26</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>22/12/2021 05:26</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>22/12/2021 05:27</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>22/12/2021 05:27</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>17/12/2021 08:04</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>17/12/2021 00:00</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>17/12/2021 08:04</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>17/12/2021 08:06</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>17/12/2021 08:06</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>17/12/2021 08:06</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>17/12/2021 08:07</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>17/12/2021 08:09</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>17/12/2021 08:09</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>17/12/2021 08:10</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>17/12/2021 08:08</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>17/12/2021 08:08</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>17/12/2021 08:15</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>17/12/2021 08:14</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>17/12/2021 08:14</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>17/12/2021 08:16</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>17/12/2021 08:14</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>17/12/2021 08:15</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>17/12/2021 08:16</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>17/12/2021 08:13</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>17/12/2021 08:13</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>17/12/2021 08:15</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>17/12/2021 08:13</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>17/12/2021 08:12</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>17/12/2021 08:23</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>17/12/2021 08:22</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>17/12/2021 08:23</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>17/12/2021 08:22</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>17/12/2021 08:22</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>17/12/2021 08:21</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>17/12/2021 08:20</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>17/12/2021 08:21</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>17/12/2021 08:19</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>17/12/2021 08:20</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>17/12/2021 08:20</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>17/12/2021 08:19</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>17/12/2021 08:28</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>17/12/2021 08:29</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>17/12/2021 08:30</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>17/12/2021 08:27</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>17/12/2021 08:28</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>17/12/2021 08:26</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>17/12/2021 08:28</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4385,7 +4385,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>17/12/2021 08:29</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>17/12/2021 08:27</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>17/12/2021 08:27</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>17/12/2021 08:26</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>17/12/2021 08:29</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>17/12/2021 08:42</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>17/12/2021 08:42</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>17/12/2021 08:40</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>17/12/2021 08:40</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>17/12/2021 08:43</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>17/12/2021 08:41</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>17/12/2021 08:36</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>17/12/2021 08:38</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5334,7 +5334,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>17/12/2021 08:39</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>17/12/2021 08:35</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>17/12/2021 08:37</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>17/12/2021 08:37</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>17/12/2021 08:41</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5699,7 +5699,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>17/12/2021 08:42</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>17/12/2021 08:43</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>17/12/2021 08:38</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>17/12/2021 08:39</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>17/12/2021 08:39</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>17/12/2021 08:36</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>17/12/2021 08:37</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6210,7 +6210,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>17/12/2021 08:38</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6283,7 +6283,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>17/12/2021 08:35</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6356,7 +6356,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>17/12/2021 08:35</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>17/12/2021 08:36</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>17/12/2021 08:46</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6575,7 +6575,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>17/12/2021 08:46</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>17/12/2021 08:45</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>17/12/2021 08:46</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>17/12/2021 08:47</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>17/12/2021 08:45</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>17/12/2021 08:50</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>17/12/2021 08:50</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>17/12/2021 08:49</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>17/12/2021 08:49</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>17/12/2021 08:49</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7305,7 +7305,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>17/12/2021 08:48</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>17/12/2021 08:59</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7451,7 +7451,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>17/12/2021 08:59</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>17/12/2021 08:57</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>17/12/2021 08:58</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7670,7 +7670,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>17/12/2021 08:56</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>17/12/2021 08:54</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>17/12/2021 08:55</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>17/12/2021 08:56</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7962,7 +7962,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>17/12/2021 08:54</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -8035,7 +8035,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>17/12/2021 08:58</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>17/12/2021 08:58</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>17/12/2021 08:57</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8254,7 +8254,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>17/12/2021 08:57</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8327,7 +8327,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>17/12/2021 08:56</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8400,7 +8400,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>17/12/2021 08:54</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>17/12/2021 08:55</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>17/12/2021 08:53</t>
+          <t>2021-12-17</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -8619,7 +8619,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>22/12/2021 05:23</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -8692,7 +8692,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>22/12/2021 05:27</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>22/12/2021 05:23</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>22/12/2021 05:22</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>22/12/2021 05:34</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>22/12/2021 05:35</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -9057,7 +9057,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>22/12/2021 05:35</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>22/12/2021 05:34</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -9203,7 +9203,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>22/12/2021 05:36</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>22/12/2021 05:36</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -9349,7 +9349,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>22/12/2021 05:33</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -9422,7 +9422,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>22/12/2021 05:32</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>22/12/2021 05:32</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>22/12/2021 05:33</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>22/12/2021 05:31</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -9714,7 +9714,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>22/12/2021 05:35</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9787,7 +9787,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>22/12/2021 05:36</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9860,7 +9860,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>22/12/2021 05:32</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>22/12/2021 05:33</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -10006,7 +10006,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>22/12/2021 05:31</t>
+          <t>2021-12-22</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">

--- a/analysis/metadata/P08_7/P08_7_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_7/P08_7_minimal_metadata.xlsx
@@ -1082,17 +1082,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1145,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -1301,17 +1281,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -1374,17 +1344,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -1447,17 +1407,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -1520,17 +1470,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -1666,17 +1606,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -1885,17 +1815,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -1958,17 +1878,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -2031,17 +1941,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -2104,17 +2004,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -2250,17 +2140,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -2323,17 +2203,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -2542,17 +2412,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -2615,17 +2475,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -2688,17 +2538,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -2761,17 +2601,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -2907,17 +2737,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -2980,17 +2800,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -3272,17 +3082,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3145,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -3418,17 +3208,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -3491,17 +3271,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -3564,17 +3334,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -3637,17 +3397,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -3783,17 +3533,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -3856,17 +3596,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -4634,17 +4364,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -4853,17 +4573,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -4999,17 +4709,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -5364,17 +5064,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -5875,17 +5565,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -5948,17 +5628,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -6313,17 +5983,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -6605,17 +6265,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -6678,17 +6328,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -7116,17 +6756,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -7481,17 +7111,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -7554,17 +7174,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -7846,17 +7456,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -7919,17 +7519,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -7992,17 +7582,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -8065,17 +7645,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -8430,17 +8000,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -8503,17 +8063,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -8649,17 +8199,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -9598,17 +9138,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -9890,17 +9420,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P131" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P08_7/P08_7_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_7/P08_7_minimal_metadata.xlsx
@@ -1047,7 +1047,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1083,6 +1083,16 @@
       <c r="N10" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1120,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1146,6 +1156,16 @@
       <c r="N11" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1266,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1282,6 +1302,16 @@
       <c r="N13" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1339,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1345,6 +1375,16 @@
       <c r="N14" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1412,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1408,6 +1448,16 @@
       <c r="N15" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1485,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1471,6 +1521,16 @@
       <c r="N16" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1631,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1607,6 +1667,16 @@
       <c r="N18" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1850,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1816,6 +1886,16 @@
       <c r="N21" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1923,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1879,6 +1959,16 @@
       <c r="N22" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1996,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1942,6 +2032,16 @@
       <c r="N23" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -1969,7 +2069,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2005,6 +2105,16 @@
       <c r="N24" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2215,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2141,6 +2251,16 @@
       <c r="N26" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2288,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2204,6 +2324,16 @@
       <c r="N27" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2507,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2413,6 +2543,16 @@
       <c r="N30" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2580,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2476,6 +2616,16 @@
       <c r="N31" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2653,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2539,6 +2689,16 @@
       <c r="N32" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2726,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2602,6 +2762,16 @@
       <c r="N33" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2872,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2738,6 +2908,16 @@
       <c r="N35" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2945,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2801,6 +2981,16 @@
       <c r="N36" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3237,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3083,6 +3273,16 @@
       <c r="N40" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3310,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3146,6 +3346,16 @@
       <c r="N41" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3383,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3209,6 +3419,16 @@
       <c r="N42" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -3236,7 +3456,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3272,6 +3492,16 @@
       <c r="N43" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3529,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3335,6 +3565,16 @@
       <c r="N44" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3602,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3398,6 +3638,16 @@
       <c r="N45" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3748,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3534,6 +3784,16 @@
       <c r="N47" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3821,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3597,6 +3857,16 @@
       <c r="N48" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4599,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4365,6 +4635,16 @@
       <c r="N59" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -4538,7 +4818,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4574,6 +4854,16 @@
       <c r="N62" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -4674,7 +4964,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4710,6 +5000,16 @@
       <c r="N64" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -5029,7 +5329,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5065,6 +5365,16 @@
       <c r="N69" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -5530,7 +5840,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -5566,6 +5876,16 @@
       <c r="N76" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -5593,7 +5913,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -5629,6 +5949,16 @@
       <c r="N77" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -5948,7 +6278,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5984,6 +6314,16 @@
       <c r="N82" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6570,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -6266,6 +6606,16 @@
       <c r="N86" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -6293,7 +6643,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -6329,6 +6679,16 @@
       <c r="N87" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -6721,7 +7081,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -6757,6 +7117,16 @@
       <c r="N93" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -7076,7 +7446,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -7112,6 +7482,16 @@
       <c r="N98" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -7139,7 +7519,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -7175,6 +7555,16 @@
       <c r="N99" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -7421,7 +7811,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -7457,6 +7847,16 @@
       <c r="N103" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -7484,7 +7884,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -7520,6 +7920,16 @@
       <c r="N104" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -7547,7 +7957,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -7583,6 +7993,16 @@
       <c r="N105" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -7610,7 +8030,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -7646,6 +8066,16 @@
       <c r="N106" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -7965,7 +8395,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -8001,6 +8431,16 @@
       <c r="N111" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -8028,7 +8468,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -8064,6 +8504,16 @@
       <c r="N112" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -8164,7 +8614,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -8200,6 +8650,16 @@
       <c r="N114" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -9103,7 +9563,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -9139,6 +9599,16 @@
       <c r="N127" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -9385,7 +9855,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -9421,6 +9891,16 @@
       <c r="N131" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P08_7/P08_7_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_7/P08_7_minimal_metadata.xlsx
@@ -451,10 +451,10 @@
         </is>
       </c>
       <c r="C2">
-        <v>57.0146</v>
+        <v>57.12908</v>
       </c>
       <c r="D2">
-        <v>9.9846</v>
+        <v>10.03035</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -464,6 +464,11 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>6230</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Hammer Bakker</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -524,10 +529,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>57.0143</v>
+        <v>57.49849</v>
       </c>
       <c r="D3">
-        <v>9.984400000000001</v>
+        <v>9.887740000000001</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -537,6 +542,11 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Lønstrup</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -597,10 +607,10 @@
         </is>
       </c>
       <c r="C4">
-        <v>57.0143</v>
+        <v>57.49749</v>
       </c>
       <c r="D4">
-        <v>9.984400000000001</v>
+        <v>9.884219999999999</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -610,6 +620,11 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Lønstrup</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -670,10 +685,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>57.0143</v>
+        <v>57.12912</v>
       </c>
       <c r="D5">
-        <v>9.984500000000001</v>
+        <v>10.0307</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -683,6 +698,11 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>6230</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hammer Bakker</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -743,10 +763,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>57.0143</v>
+        <v>57.12906</v>
       </c>
       <c r="D6">
-        <v>9.984400000000001</v>
+        <v>10.03039</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -756,6 +776,11 @@
       <c r="F6" t="inlineStr">
         <is>
           <t>6230</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hammer Bakker</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -816,10 +841,10 @@
         </is>
       </c>
       <c r="C7">
-        <v>57.0144</v>
+        <v>57.49854</v>
       </c>
       <c r="D7">
-        <v>9.984500000000001</v>
+        <v>9.88617</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -829,6 +854,11 @@
       <c r="F7" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Lønstrup</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -889,10 +919,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>57.0144</v>
+        <v>57.18571</v>
       </c>
       <c r="D8">
-        <v>9.984500000000001</v>
+        <v>9.526719999999999</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -902,6 +932,11 @@
       <c r="F8" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -962,10 +997,10 @@
         </is>
       </c>
       <c r="C9">
-        <v>57.0143</v>
+        <v>57.18593</v>
       </c>
       <c r="D9">
-        <v>9.984400000000001</v>
+        <v>9.527279999999999</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -975,6 +1010,11 @@
       <c r="F9" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1035,10 +1075,10 @@
         </is>
       </c>
       <c r="C10">
-        <v>57.0143</v>
+        <v>57.17017</v>
       </c>
       <c r="D10">
-        <v>9.984400000000001</v>
+        <v>9.52936</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1048,6 +1088,11 @@
       <c r="F10" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1108,10 +1153,10 @@
         </is>
       </c>
       <c r="C11">
-        <v>57.0143</v>
+        <v>56.97168</v>
       </c>
       <c r="D11">
-        <v>9.984500000000001</v>
+        <v>9.92873</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1121,6 +1166,11 @@
       <c r="F11" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Dall hede</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1181,10 +1231,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>57.0144</v>
+        <v>57.18594</v>
       </c>
       <c r="D12">
-        <v>9.984500000000001</v>
+        <v>9.52773</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1194,6 +1244,11 @@
       <c r="F12" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1254,10 +1309,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>57.0145</v>
+        <v>56.4589</v>
       </c>
       <c r="D13">
-        <v>9.985300000000001</v>
+        <v>9.628399999999999</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1267,6 +1322,11 @@
       <c r="F13" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Ø Bakker</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1327,10 +1387,10 @@
         </is>
       </c>
       <c r="C14">
-        <v>57.0146</v>
+        <v>56.24343</v>
       </c>
       <c r="D14">
-        <v>9.9847</v>
+        <v>9.26934</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1340,6 +1400,11 @@
       <c r="F14" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1400,10 +1465,10 @@
         </is>
       </c>
       <c r="C15">
-        <v>57.0147</v>
+        <v>56.26453</v>
       </c>
       <c r="D15">
-        <v>9.9847</v>
+        <v>9.247030000000001</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1413,6 +1478,11 @@
       <c r="F15" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1473,10 +1543,10 @@
         </is>
       </c>
       <c r="C16">
-        <v>57.0147</v>
+        <v>56.26497</v>
       </c>
       <c r="D16">
-        <v>9.9849</v>
+        <v>9.24625</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1486,6 +1556,11 @@
       <c r="F16" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1546,10 +1621,10 @@
         </is>
       </c>
       <c r="C17">
-        <v>57.0146</v>
+        <v>56.90035</v>
       </c>
       <c r="D17">
-        <v>9.985099999999999</v>
+        <v>10.26045</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1559,6 +1634,11 @@
       <c r="F17" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Dokkedal</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1619,10 +1699,10 @@
         </is>
       </c>
       <c r="C18">
-        <v>57.0147</v>
+        <v>56.45906</v>
       </c>
       <c r="D18">
-        <v>9.9847</v>
+        <v>9.6334</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1632,6 +1712,11 @@
       <c r="F18" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Ø Bakker</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1692,10 +1777,10 @@
         </is>
       </c>
       <c r="C19">
-        <v>57.0147</v>
+        <v>57.18595</v>
       </c>
       <c r="D19">
-        <v>9.9847</v>
+        <v>9.52791</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1705,6 +1790,11 @@
       <c r="F19" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1765,10 +1855,10 @@
         </is>
       </c>
       <c r="C20">
-        <v>57.0146</v>
+        <v>56.90035</v>
       </c>
       <c r="D20">
-        <v>9.9849</v>
+        <v>10.26045</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1778,6 +1868,11 @@
       <c r="F20" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Dokkedal</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1838,10 +1933,10 @@
         </is>
       </c>
       <c r="C21">
-        <v>57.0147</v>
+        <v>56.24347</v>
       </c>
       <c r="D21">
-        <v>9.9847</v>
+        <v>9.26929</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1851,6 +1946,11 @@
       <c r="F21" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1911,10 +2011,10 @@
         </is>
       </c>
       <c r="C22">
-        <v>57.0147</v>
+        <v>56.2437</v>
       </c>
       <c r="D22">
-        <v>9.9847</v>
+        <v>9.269019999999999</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1924,6 +2024,11 @@
       <c r="F22" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1984,10 +2089,10 @@
         </is>
       </c>
       <c r="C23">
-        <v>57.0144</v>
+        <v>56.24392</v>
       </c>
       <c r="D23">
-        <v>9.9854</v>
+        <v>9.269259999999999</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1997,6 +2102,11 @@
       <c r="F23" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2057,10 +2167,10 @@
         </is>
       </c>
       <c r="C24">
-        <v>57.0147</v>
+        <v>56.97181</v>
       </c>
       <c r="D24">
-        <v>9.9848</v>
+        <v>9.92906</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2070,6 +2180,11 @@
       <c r="F24" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Dall hede</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2130,10 +2245,10 @@
         </is>
       </c>
       <c r="C25">
-        <v>57.0147</v>
+        <v>56.90037</v>
       </c>
       <c r="D25">
-        <v>9.9847</v>
+        <v>10.26043</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2143,6 +2258,11 @@
       <c r="F25" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Dokkedal</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2203,10 +2323,10 @@
         </is>
       </c>
       <c r="C26">
-        <v>57.0147</v>
+        <v>56.24396</v>
       </c>
       <c r="D26">
-        <v>9.9849</v>
+        <v>9.269299999999999</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2216,6 +2336,11 @@
       <c r="F26" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2276,10 +2401,10 @@
         </is>
       </c>
       <c r="C27">
-        <v>57.0145</v>
+        <v>56.24345</v>
       </c>
       <c r="D27">
-        <v>9.985300000000001</v>
+        <v>9.26924</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2289,6 +2414,11 @@
       <c r="F27" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2349,10 +2479,10 @@
         </is>
       </c>
       <c r="C28">
-        <v>57.0147</v>
+        <v>56.90236</v>
       </c>
       <c r="D28">
-        <v>9.9847</v>
+        <v>10.25672</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2362,6 +2492,11 @@
       <c r="F28" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Dokkedal</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2422,10 +2557,10 @@
         </is>
       </c>
       <c r="C29">
-        <v>57.0145</v>
+        <v>56.90235</v>
       </c>
       <c r="D29">
-        <v>9.9854</v>
+        <v>10.25679</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2435,6 +2570,11 @@
       <c r="F29" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Dokkedal</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2495,10 +2635,10 @@
         </is>
       </c>
       <c r="C30">
-        <v>57.0147</v>
+        <v>56.9717</v>
       </c>
       <c r="D30">
-        <v>9.9848</v>
+        <v>9.92878</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2508,6 +2648,11 @@
       <c r="F30" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Dall hede</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2568,10 +2713,10 @@
         </is>
       </c>
       <c r="C31">
-        <v>57.0145</v>
+        <v>56.26454</v>
       </c>
       <c r="D31">
-        <v>9.985300000000001</v>
+        <v>9.247070000000001</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2581,6 +2726,11 @@
       <c r="F31" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2641,10 +2791,10 @@
         </is>
       </c>
       <c r="C32">
-        <v>57.0145</v>
+        <v>56.24374</v>
       </c>
       <c r="D32">
-        <v>9.985200000000001</v>
+        <v>9.26904</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2654,6 +2804,11 @@
       <c r="F32" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2714,10 +2869,10 @@
         </is>
       </c>
       <c r="C33">
-        <v>57.0147</v>
+        <v>56.97173</v>
       </c>
       <c r="D33">
-        <v>9.9849</v>
+        <v>9.92876</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2727,6 +2882,11 @@
       <c r="F33" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Dall hede</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2787,10 +2947,10 @@
         </is>
       </c>
       <c r="C34">
-        <v>57.0144</v>
+        <v>56.90241</v>
       </c>
       <c r="D34">
-        <v>9.9854</v>
+        <v>10.25675</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2800,6 +2960,11 @@
       <c r="F34" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Dokkedal</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2860,10 +3025,10 @@
         </is>
       </c>
       <c r="C35">
-        <v>57.0145</v>
+        <v>56.26501</v>
       </c>
       <c r="D35">
-        <v>9.985300000000001</v>
+        <v>9.246219999999999</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2873,6 +3038,11 @@
       <c r="F35" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2933,10 +3103,10 @@
         </is>
       </c>
       <c r="C36">
-        <v>57.0147</v>
+        <v>56.24373</v>
       </c>
       <c r="D36">
-        <v>9.9847</v>
+        <v>9.26909</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2946,6 +3116,11 @@
       <c r="F36" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3006,10 +3181,10 @@
         </is>
       </c>
       <c r="C37">
-        <v>57.0148</v>
+        <v>57.18586</v>
       </c>
       <c r="D37">
-        <v>9.9847</v>
+        <v>9.527329999999999</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3019,6 +3194,11 @@
       <c r="F37" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3079,10 +3259,10 @@
         </is>
       </c>
       <c r="C38">
-        <v>57.0147</v>
+        <v>56.9829</v>
       </c>
       <c r="D38">
-        <v>9.9847</v>
+        <v>9.287599999999999</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3092,6 +3272,11 @@
       <c r="F38" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>DANKALK</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3152,10 +3337,10 @@
         </is>
       </c>
       <c r="C39">
-        <v>57.0147</v>
+        <v>56.82865</v>
       </c>
       <c r="D39">
-        <v>9.9847</v>
+        <v>9.7986</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3165,6 +3350,11 @@
       <c r="F39" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Rold skov</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3225,10 +3415,10 @@
         </is>
       </c>
       <c r="C40">
-        <v>57.0147</v>
+        <v>56.26427</v>
       </c>
       <c r="D40">
-        <v>9.9848</v>
+        <v>9.24751</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3238,6 +3428,11 @@
       <c r="F40" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3298,10 +3493,10 @@
         </is>
       </c>
       <c r="C41">
-        <v>57.0148</v>
+        <v>56.45892</v>
       </c>
       <c r="D41">
-        <v>9.9847</v>
+        <v>9.63363</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -3311,6 +3506,11 @@
       <c r="F41" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Ø Bakker</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3371,10 +3571,10 @@
         </is>
       </c>
       <c r="C42">
-        <v>57.0145</v>
+        <v>56.26498</v>
       </c>
       <c r="D42">
-        <v>9.985300000000001</v>
+        <v>9.24634</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3384,6 +3584,11 @@
       <c r="F42" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3444,10 +3649,10 @@
         </is>
       </c>
       <c r="C43">
-        <v>57.0146</v>
+        <v>56.26434</v>
       </c>
       <c r="D43">
-        <v>9.985099999999999</v>
+        <v>9.2475</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -3457,6 +3662,11 @@
       <c r="F43" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3517,10 +3727,10 @@
         </is>
       </c>
       <c r="C44">
-        <v>57.0147</v>
+        <v>56.2643</v>
       </c>
       <c r="D44">
-        <v>9.9848</v>
+        <v>9.2476</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3530,6 +3740,11 @@
       <c r="F44" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3590,10 +3805,10 @@
         </is>
       </c>
       <c r="C45">
-        <v>57.0147</v>
+        <v>57.17014</v>
       </c>
       <c r="D45">
-        <v>9.9849</v>
+        <v>9.529439999999999</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3603,6 +3818,11 @@
       <c r="F45" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3663,10 +3883,10 @@
         </is>
       </c>
       <c r="C46">
-        <v>57.0147</v>
+        <v>56.82863</v>
       </c>
       <c r="D46">
-        <v>9.9847</v>
+        <v>9.79862</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3676,6 +3896,11 @@
       <c r="F46" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Rold skov</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3736,10 +3961,10 @@
         </is>
       </c>
       <c r="C47">
-        <v>57.0147</v>
+        <v>56.26458</v>
       </c>
       <c r="D47">
-        <v>9.9847</v>
+        <v>9.24695</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3749,6 +3974,11 @@
       <c r="F47" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3809,10 +4039,10 @@
         </is>
       </c>
       <c r="C48">
-        <v>57.0146</v>
+        <v>56.45881</v>
       </c>
       <c r="D48">
-        <v>9.984999999999999</v>
+        <v>9.629390000000001</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3822,6 +4052,11 @@
       <c r="F48" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Ø Bakker</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3881,12 +4116,6 @@
           <t>soil</t>
         </is>
       </c>
-      <c r="C49">
-        <v>57.0148</v>
-      </c>
-      <c r="D49">
-        <v>9.9847</v>
-      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>natural_soil</t>
@@ -3930,10 +4159,10 @@
         </is>
       </c>
       <c r="C50">
-        <v>57.0146</v>
+        <v>56.98352</v>
       </c>
       <c r="D50">
-        <v>9.985200000000001</v>
+        <v>9.28786</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3943,6 +4172,11 @@
       <c r="F50" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>DANKALK</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4003,10 +4237,10 @@
         </is>
       </c>
       <c r="C51">
-        <v>57.0146</v>
+        <v>56.98296</v>
       </c>
       <c r="D51">
-        <v>9.984999999999999</v>
+        <v>9.287520000000001</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -4016,6 +4250,11 @@
       <c r="F51" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>DANKALK</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4076,10 +4315,10 @@
         </is>
       </c>
       <c r="C52">
-        <v>57.0149</v>
+        <v>56.82833</v>
       </c>
       <c r="D52">
-        <v>9.984400000000001</v>
+        <v>9.79876</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -4089,6 +4328,11 @@
       <c r="F52" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Rold skov</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4149,10 +4393,10 @@
         </is>
       </c>
       <c r="C53">
-        <v>57.0146</v>
+        <v>56.91732</v>
       </c>
       <c r="D53">
-        <v>9.984999999999999</v>
+        <v>8.427300000000001</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -4162,6 +4406,11 @@
       <c r="F53" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Stenbjerg Klitplantage</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4222,10 +4471,10 @@
         </is>
       </c>
       <c r="C54">
-        <v>57.0149</v>
+        <v>56.82834</v>
       </c>
       <c r="D54">
-        <v>9.984400000000001</v>
+        <v>9.798679999999999</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -4235,6 +4484,11 @@
       <c r="F54" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Rold skov</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4295,10 +4549,10 @@
         </is>
       </c>
       <c r="C55">
-        <v>57.0146</v>
+        <v>56.81192</v>
       </c>
       <c r="D55">
-        <v>9.9849</v>
+        <v>8.26821</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -4308,6 +4562,11 @@
       <c r="F55" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Lodbjerg Klitplantage</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4368,10 +4627,10 @@
         </is>
       </c>
       <c r="C56">
-        <v>57.0145</v>
+        <v>56.82829</v>
       </c>
       <c r="D56">
-        <v>9.985099999999999</v>
+        <v>9.79867</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -4381,6 +4640,11 @@
       <c r="F56" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Rold skov</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4441,10 +4705,10 @@
         </is>
       </c>
       <c r="C57">
-        <v>57.0149</v>
+        <v>56.81139</v>
       </c>
       <c r="D57">
-        <v>9.984299999999999</v>
+        <v>8.266500000000001</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -4454,6 +4718,11 @@
       <c r="F57" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Lodbjerg Klitplantage</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4514,10 +4783,10 @@
         </is>
       </c>
       <c r="C58">
-        <v>57.0146</v>
+        <v>56.82867</v>
       </c>
       <c r="D58">
-        <v>9.9849</v>
+        <v>9.798679999999999</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -4527,6 +4796,11 @@
       <c r="F58" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Rold skov</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4587,10 +4861,10 @@
         </is>
       </c>
       <c r="C59">
-        <v>57.0146</v>
+        <v>57.17012</v>
       </c>
       <c r="D59">
-        <v>9.985099999999999</v>
+        <v>9.52932</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -4600,6 +4874,11 @@
       <c r="F59" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4660,10 +4939,10 @@
         </is>
       </c>
       <c r="C60">
-        <v>57.0145</v>
+        <v>56.91781</v>
       </c>
       <c r="D60">
-        <v>9.985300000000001</v>
+        <v>8.427429999999999</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -4673,6 +4952,11 @@
       <c r="F60" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Stenbjerg Klitplantage</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4733,10 +5017,10 @@
         </is>
       </c>
       <c r="C61">
-        <v>57.0147</v>
+        <v>56.81216</v>
       </c>
       <c r="D61">
-        <v>9.9849</v>
+        <v>8.269270000000001</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -4746,6 +5030,11 @@
       <c r="F61" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Lodbjerg Klitplantage</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4806,10 +5095,10 @@
         </is>
       </c>
       <c r="C62">
-        <v>57.0147</v>
+        <v>56.45887</v>
       </c>
       <c r="D62">
-        <v>9.9847</v>
+        <v>9.62833</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -4819,6 +5108,11 @@
       <c r="F62" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Ø Bakker</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4879,10 +5173,10 @@
         </is>
       </c>
       <c r="C63">
-        <v>57.0147</v>
+        <v>56.81134</v>
       </c>
       <c r="D63">
-        <v>9.9848</v>
+        <v>8.26642</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -4892,6 +5186,11 @@
       <c r="F63" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Lodbjerg Klitplantage</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4952,10 +5251,10 @@
         </is>
       </c>
       <c r="C64">
-        <v>57.0148</v>
+        <v>57.17076</v>
       </c>
       <c r="D64">
-        <v>9.9847</v>
+        <v>9.52962</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -4965,6 +5264,11 @@
       <c r="F64" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5025,10 +5329,10 @@
         </is>
       </c>
       <c r="C65">
-        <v>57.0146</v>
+        <v>56.91755</v>
       </c>
       <c r="D65">
-        <v>9.9849</v>
+        <v>8.427149999999999</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -5038,6 +5342,11 @@
       <c r="F65" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Stenbjerg Klitplantage</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5098,10 +5407,10 @@
         </is>
       </c>
       <c r="C66">
-        <v>57.0147</v>
+        <v>56.98322</v>
       </c>
       <c r="D66">
-        <v>9.9847</v>
+        <v>9.28763</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -5111,6 +5420,11 @@
       <c r="F66" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>DANKALK</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5171,10 +5485,10 @@
         </is>
       </c>
       <c r="C67">
-        <v>57.0147</v>
+        <v>56.81213</v>
       </c>
       <c r="D67">
-        <v>9.9847</v>
+        <v>8.269310000000001</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -5184,6 +5498,11 @@
       <c r="F67" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Lodbjerg Klitplantage</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5244,10 +5563,10 @@
         </is>
       </c>
       <c r="C68">
-        <v>57.0145</v>
+        <v>57.06717</v>
       </c>
       <c r="D68">
-        <v>9.985300000000001</v>
+        <v>9.893940000000001</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -5257,6 +5576,11 @@
       <c r="F68" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Nørresundby</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5317,10 +5641,10 @@
         </is>
       </c>
       <c r="C69">
-        <v>57.0147</v>
+        <v>57.1697</v>
       </c>
       <c r="D69">
-        <v>9.9847</v>
+        <v>9.529769999999999</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -5330,6 +5654,11 @@
       <c r="F69" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5390,10 +5719,10 @@
         </is>
       </c>
       <c r="C70">
-        <v>57.0146</v>
+        <v>56.98324</v>
       </c>
       <c r="D70">
-        <v>9.984999999999999</v>
+        <v>9.2875</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -5403,6 +5732,11 @@
       <c r="F70" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>DANKALK</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5463,10 +5797,10 @@
         </is>
       </c>
       <c r="C71">
-        <v>57.0146</v>
+        <v>57.0672</v>
       </c>
       <c r="D71">
-        <v>9.9849</v>
+        <v>9.89392</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -5476,6 +5810,11 @@
       <c r="F71" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Nørresundby</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5536,10 +5875,10 @@
         </is>
       </c>
       <c r="C72">
-        <v>57.0147</v>
+        <v>56.82808</v>
       </c>
       <c r="D72">
-        <v>9.9848</v>
+        <v>9.798450000000001</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -5549,6 +5888,11 @@
       <c r="F72" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Rold skov</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5609,10 +5953,10 @@
         </is>
       </c>
       <c r="C73">
-        <v>57.0145</v>
+        <v>56.82808</v>
       </c>
       <c r="D73">
-        <v>9.9854</v>
+        <v>9.798550000000001</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -5622,6 +5966,11 @@
       <c r="F73" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Rold skov</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -5682,10 +6031,10 @@
         </is>
       </c>
       <c r="C74">
-        <v>57.0145</v>
+        <v>56.91728</v>
       </c>
       <c r="D74">
-        <v>9.985300000000001</v>
+        <v>8.42719</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -5695,6 +6044,11 @@
       <c r="F74" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Stenbjerg Klitplantage</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -5755,10 +6109,10 @@
         </is>
       </c>
       <c r="C75">
-        <v>57.0146</v>
+        <v>57.06804</v>
       </c>
       <c r="D75">
-        <v>9.985099999999999</v>
+        <v>9.89406</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -5768,6 +6122,11 @@
       <c r="F75" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Nørresundby</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -5828,10 +6187,10 @@
         </is>
       </c>
       <c r="C76">
-        <v>57.0148</v>
+        <v>57.17082</v>
       </c>
       <c r="D76">
-        <v>9.9847</v>
+        <v>9.529579999999999</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -5841,6 +6200,11 @@
       <c r="F76" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -5901,10 +6265,10 @@
         </is>
       </c>
       <c r="C77">
-        <v>57.0147</v>
+        <v>57.16975</v>
       </c>
       <c r="D77">
-        <v>9.9847</v>
+        <v>9.52979</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -5914,6 +6278,11 @@
       <c r="F77" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -5974,10 +6343,10 @@
         </is>
       </c>
       <c r="C78">
-        <v>57.0146</v>
+        <v>57.06766</v>
       </c>
       <c r="D78">
-        <v>9.9849</v>
+        <v>9.89385</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -5987,6 +6356,11 @@
       <c r="F78" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Nørresundby</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -6047,10 +6421,10 @@
         </is>
       </c>
       <c r="C79">
-        <v>57.0146</v>
+        <v>57.0676</v>
       </c>
       <c r="D79">
-        <v>9.984999999999999</v>
+        <v>9.893929999999999</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -6060,6 +6434,11 @@
       <c r="F79" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Nørresundby</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -6120,10 +6499,10 @@
         </is>
       </c>
       <c r="C80">
-        <v>57.0148</v>
+        <v>56.98327</v>
       </c>
       <c r="D80">
-        <v>9.9847</v>
+        <v>9.28759</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -6133,6 +6512,11 @@
       <c r="F80" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>DANKALK</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -6193,10 +6577,10 @@
         </is>
       </c>
       <c r="C81">
-        <v>57.0146</v>
+        <v>57.06809</v>
       </c>
       <c r="D81">
-        <v>9.9849</v>
+        <v>9.89401</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -6206,6 +6590,11 @@
       <c r="F81" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Nørresundby</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -6266,10 +6655,10 @@
         </is>
       </c>
       <c r="C82">
-        <v>57.0146</v>
+        <v>56.45918</v>
       </c>
       <c r="D82">
-        <v>9.984999999999999</v>
+        <v>9.630940000000001</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -6279,6 +6668,11 @@
       <c r="F82" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Ø Bakker</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -6339,10 +6733,10 @@
         </is>
       </c>
       <c r="C83">
-        <v>57.0146</v>
+        <v>57.0676</v>
       </c>
       <c r="D83">
-        <v>9.984999999999999</v>
+        <v>9.893789999999999</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -6352,6 +6746,11 @@
       <c r="F83" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Nørresundby</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -6412,10 +6811,10 @@
         </is>
       </c>
       <c r="C84">
-        <v>57.0147</v>
+        <v>57.06804</v>
       </c>
       <c r="D84">
-        <v>9.9848</v>
+        <v>9.89396</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -6425,6 +6824,11 @@
       <c r="F84" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Nørresundby</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -6485,10 +6889,10 @@
         </is>
       </c>
       <c r="C85">
-        <v>57.0147</v>
+        <v>56.9045</v>
       </c>
       <c r="D85">
-        <v>9.9848</v>
+        <v>10.26134</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -6498,6 +6902,11 @@
       <c r="F85" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Dokkedal</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -6558,10 +6967,10 @@
         </is>
       </c>
       <c r="C86">
-        <v>57.0148</v>
+        <v>56.45908</v>
       </c>
       <c r="D86">
-        <v>9.9847</v>
+        <v>9.63334</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -6571,6 +6980,11 @@
       <c r="F86" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Ø Bakker</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -6631,10 +7045,10 @@
         </is>
       </c>
       <c r="C87">
-        <v>57.0147</v>
+        <v>56.45897</v>
       </c>
       <c r="D87">
-        <v>9.9849</v>
+        <v>9.63367</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -6644,6 +7058,11 @@
       <c r="F87" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Ø Bakker</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -6704,10 +7123,10 @@
         </is>
       </c>
       <c r="C88">
-        <v>57.0146</v>
+        <v>56.90477</v>
       </c>
       <c r="D88">
-        <v>9.984999999999999</v>
+        <v>10.26122</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -6717,6 +7136,11 @@
       <c r="F88" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Dokkedal</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -6777,10 +7201,10 @@
         </is>
       </c>
       <c r="C89">
-        <v>57.0145</v>
+        <v>56.98291</v>
       </c>
       <c r="D89">
-        <v>9.985099999999999</v>
+        <v>9.287459999999999</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -6790,6 +7214,11 @@
       <c r="F89" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>DANKALK</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -6850,10 +7279,10 @@
         </is>
       </c>
       <c r="C90">
-        <v>57.0146</v>
+        <v>56.90444</v>
       </c>
       <c r="D90">
-        <v>9.985099999999999</v>
+        <v>10.26136</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -6863,6 +7292,11 @@
       <c r="F90" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Dokkedal</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -6923,10 +7357,10 @@
         </is>
       </c>
       <c r="C91">
-        <v>57.0147</v>
+        <v>56.98348</v>
       </c>
       <c r="D91">
-        <v>9.9848</v>
+        <v>9.28781</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -6936,6 +7370,11 @@
       <c r="F91" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>DANKALK</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6996,10 +7435,10 @@
         </is>
       </c>
       <c r="C92">
-        <v>57.0146</v>
+        <v>56.90447</v>
       </c>
       <c r="D92">
-        <v>9.984999999999999</v>
+        <v>10.26144</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -7009,6 +7448,11 @@
       <c r="F92" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Dokkedal</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -7069,10 +7513,10 @@
         </is>
       </c>
       <c r="C93">
-        <v>57.0147</v>
+        <v>57.17076</v>
       </c>
       <c r="D93">
-        <v>9.9847</v>
+        <v>9.529529999999999</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -7082,6 +7526,11 @@
       <c r="F93" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -7142,10 +7591,10 @@
         </is>
       </c>
       <c r="C94">
-        <v>57.0146</v>
+        <v>56.91757</v>
       </c>
       <c r="D94">
-        <v>9.984999999999999</v>
+        <v>8.42722</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -7155,6 +7604,11 @@
       <c r="F94" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Stenbjerg Klitplantage</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -7215,10 +7669,10 @@
         </is>
       </c>
       <c r="C95">
-        <v>57.0146</v>
+        <v>56.91777</v>
       </c>
       <c r="D95">
-        <v>9.984999999999999</v>
+        <v>8.42732</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -7228,6 +7682,11 @@
       <c r="F95" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Stenbjerg Klitplantage</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -7288,10 +7747,10 @@
         </is>
       </c>
       <c r="C96">
-        <v>57.0147</v>
+        <v>56.8114</v>
       </c>
       <c r="D96">
-        <v>9.9847</v>
+        <v>8.26637</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -7301,6 +7760,11 @@
       <c r="F96" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Lodbjerg Klitplantage</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -7361,10 +7825,10 @@
         </is>
       </c>
       <c r="C97">
-        <v>57.0146</v>
+        <v>56.90432</v>
       </c>
       <c r="D97">
-        <v>9.984999999999999</v>
+        <v>10.26229</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -7374,6 +7838,11 @@
       <c r="F97" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Dokkedal</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -7434,10 +7903,10 @@
         </is>
       </c>
       <c r="C98">
-        <v>57.0147</v>
+        <v>56.45883</v>
       </c>
       <c r="D98">
-        <v>9.9848</v>
+        <v>9.62839</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -7447,6 +7916,11 @@
       <c r="F98" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Ø Bakker</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -7507,10 +7981,10 @@
         </is>
       </c>
       <c r="C99">
-        <v>57.0147</v>
+        <v>56.45892</v>
       </c>
       <c r="D99">
-        <v>9.9848</v>
+        <v>9.63367</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -7520,6 +7994,11 @@
       <c r="F99" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Ø Bakker</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -7580,10 +8059,10 @@
         </is>
       </c>
       <c r="C100">
-        <v>57.0147</v>
+        <v>56.98348</v>
       </c>
       <c r="D100">
-        <v>9.9847</v>
+        <v>9.28791</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -7593,6 +8072,11 @@
       <c r="F100" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>DANKALK</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -7653,10 +8137,10 @@
         </is>
       </c>
       <c r="C101">
-        <v>57.0145</v>
+        <v>56.90425</v>
       </c>
       <c r="D101">
-        <v>9.985300000000001</v>
+        <v>10.26224</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -7666,6 +8150,11 @@
       <c r="F101" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Dokkedal</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -7726,10 +8215,10 @@
         </is>
       </c>
       <c r="C102">
-        <v>57.0147</v>
+        <v>56.90403</v>
       </c>
       <c r="D102">
-        <v>9.9847</v>
+        <v>10.2622</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -7739,6 +8228,11 @@
       <c r="F102" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Dokkedal</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -7799,10 +8293,10 @@
         </is>
       </c>
       <c r="C103">
-        <v>57.0147</v>
+        <v>56.45905</v>
       </c>
       <c r="D103">
-        <v>9.9848</v>
+        <v>9.63334</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -7812,6 +8306,11 @@
       <c r="F103" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Ø Bakker</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -7872,10 +8371,10 @@
         </is>
       </c>
       <c r="C104">
-        <v>57.0147</v>
+        <v>56.45913</v>
       </c>
       <c r="D104">
-        <v>9.9847</v>
+        <v>9.630890000000001</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -7885,6 +8384,11 @@
       <c r="F104" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Ø Bakker</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -7945,10 +8449,10 @@
         </is>
       </c>
       <c r="C105">
-        <v>57.0147</v>
+        <v>56.45879</v>
       </c>
       <c r="D105">
-        <v>9.9847</v>
+        <v>9.629429999999999</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -7958,6 +8462,11 @@
       <c r="F105" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Ø Bakker</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -8018,10 +8527,10 @@
         </is>
       </c>
       <c r="C106">
-        <v>57.0147</v>
+        <v>57.16977</v>
       </c>
       <c r="D106">
-        <v>9.9847</v>
+        <v>9.52989</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -8031,6 +8540,11 @@
       <c r="F106" t="inlineStr">
         <is>
           <t>4110</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -8091,10 +8605,10 @@
         </is>
       </c>
       <c r="C107">
-        <v>57.0147</v>
+        <v>57.06719</v>
       </c>
       <c r="D107">
-        <v>9.9847</v>
+        <v>9.894</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -8104,6 +8618,11 @@
       <c r="F107" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Nørresundby</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -8164,10 +8683,10 @@
         </is>
       </c>
       <c r="C108">
-        <v>57.0147</v>
+        <v>56.81197</v>
       </c>
       <c r="D108">
-        <v>9.9848</v>
+        <v>8.26815</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -8177,6 +8696,11 @@
       <c r="F108" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Lodbjerg Klitplantage</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -8237,10 +8761,10 @@
         </is>
       </c>
       <c r="C109">
-        <v>57.0147</v>
+        <v>56.90481</v>
       </c>
       <c r="D109">
-        <v>9.9847</v>
+        <v>10.26122</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -8250,6 +8774,11 @@
       <c r="F109" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Dokkedal</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -8310,10 +8839,10 @@
         </is>
       </c>
       <c r="C110">
-        <v>57.0147</v>
+        <v>56.90477</v>
       </c>
       <c r="D110">
-        <v>9.9848</v>
+        <v>10.26131</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -8323,6 +8852,11 @@
       <c r="F110" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Dokkedal</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -8383,10 +8917,10 @@
         </is>
       </c>
       <c r="C111">
-        <v>57.0147</v>
+        <v>56.45881</v>
       </c>
       <c r="D111">
-        <v>9.9847</v>
+        <v>9.629479999999999</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -8396,6 +8930,11 @@
       <c r="F111" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Ø Bakker</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -8456,10 +8995,10 @@
         </is>
       </c>
       <c r="C112">
-        <v>57.0147</v>
+        <v>56.45918</v>
       </c>
       <c r="D112">
-        <v>9.9847</v>
+        <v>9.63086</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -8469,6 +9008,11 @@
       <c r="F112" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Ø Bakker</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -8529,10 +9073,10 @@
         </is>
       </c>
       <c r="C113">
-        <v>57.0147</v>
+        <v>56.91784</v>
       </c>
       <c r="D113">
-        <v>9.9848</v>
+        <v>8.42731</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -8542,6 +9086,11 @@
       <c r="F113" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Stenbjerg Klitplantage</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -8602,10 +9151,10 @@
         </is>
       </c>
       <c r="C114">
-        <v>57.0143</v>
+        <v>56.97181</v>
       </c>
       <c r="D114">
-        <v>9.984500000000001</v>
+        <v>9.928990000000001</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -8615,6 +9164,11 @@
       <c r="F114" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Dall hede</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -8675,10 +9229,10 @@
         </is>
       </c>
       <c r="C115">
-        <v>57.0143</v>
+        <v>57.49859</v>
       </c>
       <c r="D115">
-        <v>9.984400000000001</v>
+        <v>9.886189999999999</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -8688,6 +9242,11 @@
       <c r="F115" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Lønstrup</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -8748,10 +9307,10 @@
         </is>
       </c>
       <c r="C116">
-        <v>57.0143</v>
+        <v>56.91735</v>
       </c>
       <c r="D116">
-        <v>9.984500000000001</v>
+        <v>8.427239999999999</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -8761,6 +9320,11 @@
       <c r="F116" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Stenbjerg Klitplantage</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -8821,10 +9385,10 @@
         </is>
       </c>
       <c r="C117">
-        <v>57.0143</v>
+        <v>57.49845</v>
       </c>
       <c r="D117">
-        <v>9.984500000000001</v>
+        <v>9.887729999999999</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -8834,6 +9398,11 @@
       <c r="F117" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Lønstrup</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -8894,10 +9463,10 @@
         </is>
       </c>
       <c r="C118">
-        <v>57.0143</v>
+        <v>56.81189</v>
       </c>
       <c r="D118">
-        <v>9.984400000000001</v>
+        <v>8.26815</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -8907,6 +9476,11 @@
       <c r="F118" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Lodbjerg Klitplantage</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -8967,10 +9541,10 @@
         </is>
       </c>
       <c r="C119">
-        <v>57.0143</v>
+        <v>57.18581</v>
       </c>
       <c r="D119">
-        <v>9.984500000000001</v>
+        <v>9.526759999999999</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -8980,6 +9554,11 @@
       <c r="F119" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -9040,10 +9619,10 @@
         </is>
       </c>
       <c r="C120">
-        <v>57.0145</v>
+        <v>56.91759</v>
       </c>
       <c r="D120">
-        <v>9.9846</v>
+        <v>8.42712</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -9053,6 +9632,11 @@
       <c r="F120" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Stenbjerg Klitplantage</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -9113,10 +9697,10 @@
         </is>
       </c>
       <c r="C121">
-        <v>57.0143</v>
+        <v>57.49857</v>
       </c>
       <c r="D121">
-        <v>9.984400000000001</v>
+        <v>9.88612</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -9126,6 +9710,11 @@
       <c r="F121" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Lønstrup</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -9186,10 +9775,10 @@
         </is>
       </c>
       <c r="C122">
-        <v>57.0145</v>
+        <v>57.18588</v>
       </c>
       <c r="D122">
-        <v>9.9846</v>
+        <v>9.52788</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -9199,6 +9788,11 @@
       <c r="F122" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -9259,10 +9853,10 @@
         </is>
       </c>
       <c r="C123">
-        <v>57.0143</v>
+        <v>57.18577</v>
       </c>
       <c r="D123">
-        <v>9.984400000000001</v>
+        <v>9.526820000000001</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -9272,6 +9866,11 @@
       <c r="F123" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -9332,10 +9931,10 @@
         </is>
       </c>
       <c r="C124">
-        <v>57.0143</v>
+        <v>57.49846</v>
       </c>
       <c r="D124">
-        <v>9.984400000000001</v>
+        <v>9.88781</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -9345,6 +9944,11 @@
       <c r="F124" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Lønstrup</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -9405,10 +10009,10 @@
         </is>
       </c>
       <c r="C125">
-        <v>57.0143</v>
+        <v>57.12909</v>
       </c>
       <c r="D125">
-        <v>9.984500000000001</v>
+        <v>10.03082</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -9418,6 +10022,11 @@
       <c r="F125" t="inlineStr">
         <is>
           <t>6230</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Hammer Bakker</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -9478,10 +10087,10 @@
         </is>
       </c>
       <c r="C126">
-        <v>57.0144</v>
+        <v>56.81213</v>
       </c>
       <c r="D126">
-        <v>9.984500000000001</v>
+        <v>8.26939</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -9491,6 +10100,11 @@
       <c r="F126" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Lodbjerg Klitplantage</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -9551,10 +10165,10 @@
         </is>
       </c>
       <c r="C127">
-        <v>57.0143</v>
+        <v>56.24389</v>
       </c>
       <c r="D127">
-        <v>9.984400000000001</v>
+        <v>9.26934</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -9564,6 +10178,11 @@
       <c r="F127" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -9624,10 +10243,10 @@
         </is>
       </c>
       <c r="C128">
-        <v>57.0144</v>
+        <v>57.1859</v>
       </c>
       <c r="D128">
-        <v>9.9846</v>
+        <v>9.52736</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -9637,6 +10256,11 @@
       <c r="F128" t="inlineStr">
         <is>
           <t>2140</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -9697,10 +10321,10 @@
         </is>
       </c>
       <c r="C129">
-        <v>57.0143</v>
+        <v>57.4975</v>
       </c>
       <c r="D129">
-        <v>9.984400000000001</v>
+        <v>9.884119999999999</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -9710,6 +10334,11 @@
       <c r="F129" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Lønstrup</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -9770,10 +10399,10 @@
         </is>
       </c>
       <c r="C130">
-        <v>57.0143</v>
+        <v>57.49746</v>
       </c>
       <c r="D130">
-        <v>9.984400000000001</v>
+        <v>9.8841</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -9783,6 +10412,11 @@
       <c r="F130" t="inlineStr">
         <is>
           <t>6120</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Lønstrup</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -9843,10 +10477,10 @@
         </is>
       </c>
       <c r="C131">
-        <v>57.0145</v>
+        <v>56.97175</v>
       </c>
       <c r="D131">
-        <v>9.9846</v>
+        <v>9.92901</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -9856,6 +10490,11 @@
       <c r="F131" t="inlineStr">
         <is>
           <t>4130</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Dall hede</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -9916,10 +10555,10 @@
         </is>
       </c>
       <c r="C132">
-        <v>57.0143</v>
+        <v>57.12907</v>
       </c>
       <c r="D132">
-        <v>9.984500000000001</v>
+        <v>10.03045</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -9929,6 +10568,11 @@
       <c r="F132" t="inlineStr">
         <is>
           <t>6230</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Hammer Bakker</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -9989,10 +10633,10 @@
         </is>
       </c>
       <c r="C133">
-        <v>57.0143</v>
+        <v>57.12907</v>
       </c>
       <c r="D133">
-        <v>9.984400000000001</v>
+        <v>10.03077</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -10002,6 +10646,11 @@
       <c r="F133" t="inlineStr">
         <is>
           <t>6230</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Hammer Bakker</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
